--- a/biology/Mycologie/Hypholoma_capnoides/Hypholoma_capnoides.xlsx
+++ b/biology/Mycologie/Hypholoma_capnoides/Hypholoma_capnoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypholoma capnoides, de son nom vernaculaire Hypholome à lames enfumées, est un champignon européen de la famille des strophariacées, à saveur douce (non amère) et à lames grisâtres, qu'on trouve en groupe ou en forme fasciculée sur de vieilles souches, ou des bois morts de conifères. 
 Peut être confondu avec Hypholoma fasciculare, beaucoup plus fréquent, à saveur amère, dont les lames sont jaune verdâtre.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chapeau : de 3 à 6 cm, convexe puis plan convexe, à marge mince infléchie et très faiblement appendiculée au début, Chair blanchâtre à jaune olivacé pâle, saveur douce.
 surface : sèche et lisse
